--- a/数据表/H-回合制效果表.xlsx
+++ b/数据表/H-回合制效果表.xlsx
@@ -4,21 +4,201 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="RoundEffectConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="EffectConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>RTX4090</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1:回合类效果
+2:非回合类效果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1:都有效
+2:PVE有效
+3:PVP有效
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0:无附加效果
+其他:效果ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：我方
+2：敌方</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+type为1时:
+value对应回合数
+type为2时:
+1：恢复体力
+2：减少体力
+3：增加增益效果
+4：增加减益效果
+5：变动等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：无附加效果
+其他：效果ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>回合类效果统计表</t>
   </si>
   <si>
+    <t>效果ID</t>
+  </si>
+  <si>
+    <t>效果类型</t>
+  </si>
+  <si>
+    <t>有效范围</t>
+  </si>
+  <si>
+    <t>额外效果</t>
+  </si>
+  <si>
+    <t>附加方</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>失败效果</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -26,6 +206,27 @@
   </si>
   <si>
     <t>remarks</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>ExtraEffect</t>
+  </si>
+  <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>LoseEffect</t>
   </si>
   <si>
     <t>n回合内，每回合回复SELF.ALL_HP的m/k,#(并造成等量固定伤害)</t>
@@ -38,10 +239,19 @@
 #()：附加效果；</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>n回合内，每回合吸取ENEMY.ALL_HP的m/k</t>
   </si>
   <si>
     <t>n回合内，每回合m%令对手进入k</t>
+  </si>
+  <si>
+    <t>n回合内，每回合免疫#(并反弹)所有受到的异常状态。</t>
   </si>
 </sst>
 </file>
@@ -49,12 +259,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,64 +276,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -131,38 +312,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,11 +326,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,26 +388,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -223,19 +437,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +551,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,145 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,10 +663,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -461,8 +673,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +709,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -511,171 +743,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -683,16 +897,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1043,64 +1257,141 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="42.25" customWidth="1"/>
     <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:3">
+    <row r="3" ht="27" spans="1:12">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" ht="27" spans="1:3">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
@@ -1146,5 +1437,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/数据表/H-回合制效果表.xlsx
+++ b/数据表/H-回合制效果表.xlsx
@@ -85,35 +85,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0:无附加效果
-其他:效果ID</t>
+1：我方
+2：敌方</t>
         </r>
       </text>
     </comment>
     <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>RTX4090:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1：我方
-2：敌方</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,6 +119,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+相关方法参数，用|分开</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：无附加效果
+其他：效果ID
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L1" authorId="0">
       <text>
         <r>
@@ -162,6 +185,77 @@
           <t xml:space="preserve">
 0：无附加效果
 其他：效果ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：无附加效果
+其他：效果ID
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：无附加效果
+其他：效果ID
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0:无附加效果
+其他:效果ID</t>
         </r>
       </text>
     </comment>
@@ -170,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>回合类效果统计表</t>
   </si>
@@ -184,21 +278,30 @@
     <t>有效范围</t>
   </si>
   <si>
+    <t>附加方</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>成功效果</t>
+  </si>
+  <si>
+    <t>失败效果</t>
+  </si>
+  <si>
+    <t>先手效果</t>
+  </si>
+  <si>
+    <t>后手效果</t>
+  </si>
+  <si>
     <t>额外效果</t>
   </si>
   <si>
-    <t>附加方</t>
-  </si>
-  <si>
-    <t>参数1</t>
-  </si>
-  <si>
-    <t>参数2</t>
-  </si>
-  <si>
-    <t>失败效果</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -214,19 +317,28 @@
     <t>Range</t>
   </si>
   <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>SuccEffect</t>
+  </si>
+  <si>
+    <t>FailEffect</t>
+  </si>
+  <si>
+    <t>PreEffect</t>
+  </si>
+  <si>
+    <t>AfterEffect</t>
+  </si>
+  <si>
     <t>ExtraEffect</t>
-  </si>
-  <si>
-    <t>Additional</t>
-  </si>
-  <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>LoseEffect</t>
   </si>
   <si>
     <t>n回合内，每回合回复SELF.ALL_HP的m/k,#(并造成等量固定伤害)</t>
@@ -259,10 +371,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -274,22 +386,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,83 +506,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -388,38 +513,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -427,6 +534,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -437,187 +549,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +758,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -656,6 +783,45 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -679,36 +845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -719,30 +855,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -751,10 +863,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,133 +875,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1257,22 +1369,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="42.25" customWidth="1"/>
     <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,95 +1418,134 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:12">
+    <row r="3" ht="27" spans="1:15">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4"/>
+      <c r="E4">
+        <v>10001</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" ht="27" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4"/>
     </row>

--- a/数据表/H-回合制效果表.xlsx
+++ b/数据表/H-回合制效果表.xlsx
@@ -108,6 +108,29 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+无：无初始判断
+其他：判断条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 type为1时:
 value对应回合数
 type为2时:
@@ -119,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,30 +161,6 @@
           </rPr>
           <t xml:space="preserve">
 相关方法参数，用|分开</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>RTX4090:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：无附加效果
-其他：效果ID
-</t>
         </r>
       </text>
     </comment>
@@ -183,8 +182,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0：无附加效果
-其他：效果ID</t>
+空：无附加效果
+其他：效果ID
+</t>
         </r>
       </text>
     </comment>
@@ -206,9 +206,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0：无附加效果
-其他：效果ID
-</t>
+空：无附加效果
+其他：效果ID</t>
         </r>
       </text>
     </comment>
@@ -230,7 +229,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0：无附加效果
+空：无附加效果
 其他：效果ID
 </t>
         </r>
@@ -254,8 +253,119 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0:无附加效果
-其他:效果ID</t>
+空：无附加效果
+其他：效果ID
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+消除对手能力提升效果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+造成伤害50%恢复自身体力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+若敌方精灵死亡则我方精灵全属性+1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+附带100固定伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+附带50固定伤害</t>
         </r>
       </text>
     </comment>
@@ -264,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>回合类效果统计表</t>
   </si>
@@ -281,6 +391,9 @@
     <t>附加方</t>
   </si>
   <si>
+    <t>初始判定</t>
+  </si>
+  <si>
     <t>参数1</t>
   </si>
   <si>
@@ -299,9 +412,6 @@
     <t>后手效果</t>
   </si>
   <si>
-    <t>额外效果</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -320,6 +430,9 @@
     <t>Additional</t>
   </si>
   <si>
+    <t>InitialJuedg</t>
+  </si>
+  <si>
     <t>Value1</t>
   </si>
   <si>
@@ -336,9 +449,6 @@
   </si>
   <si>
     <t>AfterEffect</t>
-  </si>
-  <si>
-    <t>ExtraEffect</t>
   </si>
   <si>
     <t>n回合内，每回合回复SELF.ALL_HP的m/k,#(并造成等量固定伤害)</t>
@@ -354,16 +464,31 @@
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>n回合内，每回合吸取ENEMY.ALL_HP的m/k</t>
   </si>
   <si>
+    <t>Remove|LEVEL_ALL</t>
+  </si>
+  <si>
     <t>n回合内，每回合m%令对手进入k</t>
   </si>
   <si>
+    <t>Self_Damage|0.5</t>
+  </si>
+  <si>
     <t>n回合内，每回合免疫#(并反弹)所有受到的异常状态。</t>
+  </si>
+  <si>
+    <t>Enemy_Dead</t>
+  </si>
+  <si>
+    <t>Promote|LEVEL_ALL|1</t>
+  </si>
+  <si>
+    <t>Fixed|Fixed_Number|1|100</t>
+  </si>
+  <si>
+    <t>Fixed|Fixed_Number|1|50</t>
   </si>
 </sst>
 </file>
@@ -372,9 +497,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -386,7 +511,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +531,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -406,15 +553,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,83 +646,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -513,20 +654,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -534,11 +664,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -549,187 +674,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,36 +884,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -805,9 +900,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,6 +957,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -844,17 +980,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -863,10 +988,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,133 +1000,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1371,8 +1496,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1380,12 +1505,14 @@
     <col min="2" max="2" width="42.25" customWidth="1"/>
     <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.125" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="22.25" customWidth="1"/>
+    <col min="11" max="11" width="34.75" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1486,13 +1613,13 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
@@ -1516,10 +1643,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4">
@@ -1534,30 +1661,118 @@
       <c r="H4">
         <v>2</v>
       </c>
+      <c r="I4"/>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="4"/>
+      <c r="E5">
+        <v>10002</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" ht="27" spans="1:3">
+    <row r="6" ht="27" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4"/>
+      <c r="E6">
+        <v>10003</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
+      <c r="E7">
+        <v>10004</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7">
+        <v>10005</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:11">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
+      <c r="E8">
+        <v>10005</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>

--- a/数据表/H-回合制效果表.xlsx
+++ b/数据表/H-回合制效果表.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="EffectConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="#附带表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,7 +20,7 @@
     <author>RTX4090</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,11 +39,12 @@
           </rPr>
           <t xml:space="preserve">
 1:回合类效果
-2:非回合类效果</t>
+2:非回合类效果
+3:复合型效果</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,12 +110,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-无：无初始判断
+0：无初始判断
 其他：判断条件</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,6 +144,99 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+相关方法参数，用|分开</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：无附加效果
+其他：效果ID
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：无附加效果
+其他：效果ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：无附加效果
+其他：效果ID
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K1" authorId="0">
       <text>
         <r>
@@ -160,11 +255,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-相关方法参数，用|分开</t>
+0：无附加效果
+其他：效果ID
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,13 +279,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-空：无附加效果
-其他：效果ID
-</t>
+消除对手能力提升效果</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -206,12 +301,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-空：无附加效果
-其他：效果ID</t>
+造成伤害50%恢复自身体力</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,13 +323,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-空：无附加效果
-其他：效果ID
-</t>
+若敌方精灵死亡则我方精灵全属性+1</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,13 +345,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-空：无附加效果
-其他：效果ID
-</t>
+附带100固定伤害
+先手：附带50固定伤害</t>
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -277,11 +368,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-消除对手能力提升效果</t>
+附带50固定伤害</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -299,11 +390,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-造成伤害50%恢复自身体力</t>
+全属性+1</t>
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -321,11 +412,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-若敌方精灵死亡则我方精灵全属性+1</t>
+恢复自身最大体力值1/3的体力值</t>
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -343,11 +434,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-附带100固定伤害</t>
+若自身体力小于1/2则对敌方造成自身最大体力值1/3的固定伤害</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="A18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +456,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-附带50固定伤害</t>
+3回合内，每回合恢复自身最大体力1/3的体力值</t>
         </r>
       </text>
     </comment>
@@ -374,81 +465,225 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+  <si>
+    <t>效果ID</t>
+  </si>
+  <si>
+    <t>效果类型</t>
+  </si>
+  <si>
+    <t>有效范围</t>
+  </si>
+  <si>
+    <t>附加方</t>
+  </si>
+  <si>
+    <t>初始判定</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>成功效果</t>
+  </si>
+  <si>
+    <t>失败效果</t>
+  </si>
+  <si>
+    <t>先手效果</t>
+  </si>
+  <si>
+    <t>后手效果</t>
+  </si>
+  <si>
+    <t>#注释</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>InitialJuedg</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>SuccEffect</t>
+  </si>
+  <si>
+    <t>FailEffect</t>
+  </si>
+  <si>
+    <t>PreEffect</t>
+  </si>
+  <si>
+    <t>AfterEffect</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Remove|LEVEL_ALL</t>
+  </si>
+  <si>
+    <t>消除对手能力提升效果</t>
+  </si>
+  <si>
+    <t>Self_Damage|0.5</t>
+  </si>
+  <si>
+    <t>造成伤害50%恢复自身体力</t>
+  </si>
+  <si>
+    <t>Enemy_Dead</t>
+  </si>
+  <si>
+    <t>Promote|LEVEL_ALL|1</t>
+  </si>
+  <si>
+    <t>若敌方精灵死亡则我方精灵全属性+1</t>
+  </si>
+  <si>
+    <t>Fixed|Fixed_Number|1|100</t>
+  </si>
+  <si>
+    <t>附带100固定伤害；
+先手：附带50固定伤害</t>
+  </si>
+  <si>
+    <t>Fixed|Fixed_Number|1|50</t>
+  </si>
+  <si>
+    <t>附带50固定伤害</t>
+  </si>
+  <si>
+    <t>全属性+1</t>
+  </si>
+  <si>
+    <t>Self_Max_Hp|0.34</t>
+  </si>
+  <si>
+    <t>恢复自身最大体力值1/3的体力值</t>
+  </si>
+  <si>
+    <t>Less_Hp|Self_Max_Hp|0.5</t>
+  </si>
+  <si>
+    <t>若自身体力小于1/2则对敌方造成自身最大体力值1/3的固定伤害</t>
+  </si>
+  <si>
+    <t>3回合内，每回合恢复自身最大体力1/3的体力值</t>
+  </si>
+  <si>
+    <t>1007|1008</t>
+  </si>
+  <si>
+    <t>3回合内，每回合恢复自身最大体力1/3的体力值，若体力小于1/2则造成等量固定伤害</t>
+  </si>
+  <si>
+    <t>1006|2002</t>
+  </si>
+  <si>
+    <r>
+      <t>全属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合内每回合恢复自身最大体力值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1/3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，若体力小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则造成等量固定伤害</t>
+    </r>
+  </si>
   <si>
     <t>回合类效果统计表</t>
   </si>
   <si>
-    <t>效果ID</t>
-  </si>
-  <si>
-    <t>效果类型</t>
-  </si>
-  <si>
-    <t>有效范围</t>
-  </si>
-  <si>
-    <t>附加方</t>
-  </si>
-  <si>
-    <t>初始判定</t>
-  </si>
-  <si>
-    <t>参数1</t>
-  </si>
-  <si>
-    <t>参数2</t>
-  </si>
-  <si>
-    <t>成功效果</t>
-  </si>
-  <si>
-    <t>失败效果</t>
-  </si>
-  <si>
-    <t>先手效果</t>
-  </si>
-  <si>
-    <t>后手效果</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Desc</t>
   </si>
   <si>
     <t>remarks</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>Additional</t>
-  </si>
-  <si>
-    <t>InitialJuedg</t>
-  </si>
-  <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>SuccEffect</t>
-  </si>
-  <si>
-    <t>FailEffect</t>
-  </si>
-  <si>
-    <t>PreEffect</t>
-  </si>
-  <si>
-    <t>AfterEffect</t>
   </si>
   <si>
     <t>n回合内，每回合回复SELF.ALL_HP的m/k,#(并造成等量固定伤害)</t>
@@ -461,34 +696,13 @@
 #()：附加效果；</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>n回合内，每回合吸取ENEMY.ALL_HP的m/k</t>
   </si>
   <si>
-    <t>Remove|LEVEL_ALL</t>
-  </si>
-  <si>
     <t>n回合内，每回合m%令对手进入k</t>
   </si>
   <si>
-    <t>Self_Damage|0.5</t>
-  </si>
-  <si>
     <t>n回合内，每回合免疫#(并反弹)所有受到的异常状态。</t>
-  </si>
-  <si>
-    <t>Enemy_Dead</t>
-  </si>
-  <si>
-    <t>Promote|LEVEL_ALL|1</t>
-  </si>
-  <si>
-    <t>Fixed|Fixed_Number|1|100</t>
-  </si>
-  <si>
-    <t>Fixed|Fixed_Number|1|50</t>
   </si>
 </sst>
 </file>
@@ -497,11 +711,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,27 +725,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -547,7 +751,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +772,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -569,9 +825,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,48 +866,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,24 +880,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -664,6 +891,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -680,31 +912,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,37 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,66 +1068,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -830,31 +1080,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,32 +1111,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,16 +1140,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,6 +1159,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,11 +1187,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,10 +1220,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,16 +1232,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,119 +1250,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1145,6 +1377,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1494,285 +1744,638 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K25:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="22.25" customWidth="1"/>
-    <col min="11" max="11" width="34.75" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="11.125" customWidth="1"/>
-    <col min="15" max="15" width="11.375" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="14.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="24.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="28.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="18.875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="22" style="5" customWidth="1"/>
+    <col min="12" max="12" width="40.875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="13" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="13" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" ht="27" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" ht="27" spans="1:13">
+      <c r="A7" s="7">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>10005</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" ht="27" spans="1:13">
+      <c r="A11" s="7">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:12">
+      <c r="A19" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" ht="28.5" spans="1:12">
+      <c r="A31" s="5">
+        <v>5001</v>
+      </c>
+      <c r="B31" s="5">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="121.5" spans="1:3">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="E4">
-        <v>10001</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" ht="54" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="E5">
-        <v>10002</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:11">
+    </row>
+    <row r="6" ht="94.5" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="E6">
-        <v>10003</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
-      <c r="E7">
-        <v>10004</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
-      <c r="E8">
-        <v>10005</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
@@ -1804,9 +2407,24 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C3:C13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <commentList sheetStid="1">
+    <comment s:ref="A11" rgbClr="6FC82C"/>
+  </commentList>
+</comments>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/数据表/H-回合制效果表.xlsx
+++ b/数据表/H-回合制效果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="EffectConfig" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,9 @@
 2：减少体力
 3：增加增益效果
 4：增加减益效果
-5：变动等级</t>
+5：变动等级
+6：消除对手回合类效果
+7：进入异常状态</t>
         </r>
       </text>
     </comment>
@@ -166,7 +168,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：无附加效果
+其他：效果ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,30 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>RTX4090:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：无附加效果
-其他：效果ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,30 +239,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>RTX4090:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：无附加效果
-其他：效果ID
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A4" authorId="0">
       <text>
         <r>
@@ -305,28 +283,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>RTX4090:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-若敌方精灵死亡则我方精灵全属性+1</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A7" authorId="0">
       <text>
         <r>
@@ -435,6 +391,28 @@
           </rPr>
           <t xml:space="preserve">
 若自身体力小于1/2则对敌方造成自身最大体力值1/3的固定伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RTX4090:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+若敌方精灵死亡则我方精灵全属性+1</t>
         </r>
       </text>
     </comment>
@@ -465,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>效果ID</t>
   </si>
@@ -524,9 +502,6 @@
     <t>Value2</t>
   </si>
   <si>
-    <t>SuccEffect</t>
-  </si>
-  <si>
     <t>FailEffect</t>
   </si>
   <si>
@@ -551,13 +526,7 @@
     <t>造成伤害50%恢复自身体力</t>
   </si>
   <si>
-    <t>Enemy_Dead</t>
-  </si>
-  <si>
-    <t>Promote|LEVEL_ALL|1</t>
-  </si>
-  <si>
-    <t>若敌方精灵死亡则我方精灵全属性+1</t>
+    <t>消除对手回合类效果</t>
   </si>
   <si>
     <t>Fixed|Fixed_Number|1|100</t>
@@ -573,6 +542,9 @@
     <t>附带50固定伤害</t>
   </si>
   <si>
+    <t>Promote|LEVEL_ALL|1</t>
+  </si>
+  <si>
     <t>全属性+1</t>
   </si>
   <si>
@@ -588,6 +560,27 @@
     <t>若自身体力小于1/2则对敌方造成自身最大体力值1/3的固定伤害</t>
   </si>
   <si>
+    <t>Enemy_Dead</t>
+  </si>
+  <si>
+    <t>若敌方精灵死亡则我方精灵全属性+1</t>
+  </si>
+  <si>
+    <t>HurtReduce|100|0.5</t>
+  </si>
+  <si>
+    <t>若敌方精灵死亡则我方精灵全属性+1，若敌方精灵未死亡则我方精灵下回合受到伤害减少50%。</t>
+  </si>
+  <si>
+    <t>消除对手回合类效果，先出手则40%令对手害怕</t>
+  </si>
+  <si>
+    <t>1006|40</t>
+  </si>
+  <si>
+    <t>40%令对手害怕</t>
+  </si>
+  <si>
     <t>3回合内，每回合恢复自身最大体力1/3的体力值</t>
   </si>
   <si>
@@ -601,6 +594,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>全属性</t>
     </r>
     <r>
@@ -711,9 +710,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -737,7 +736,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,7 +764,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,14 +788,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,9 +802,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,14 +827,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,17 +842,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -851,30 +866,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,31 +905,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,145 +1079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,6 +1123,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1135,30 +1145,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,6 +1173,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1201,17 +1211,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1220,149 +1219,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,13 +1384,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1747,7 +1743,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K25:K26"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1759,7 +1755,7 @@
     <col min="5" max="5" width="24.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
     <col min="7" max="7" width="28.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19" style="5" customWidth="1"/>
     <col min="9" max="9" width="14.375" style="5" customWidth="1"/>
     <col min="10" max="10" width="18.875" style="5" customWidth="1"/>
     <col min="11" max="11" width="22" style="5" customWidth="1"/>
@@ -1808,7 +1804,7 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" ht="27" spans="1:13">
       <c r="A2" s="6" t="s">
@@ -1836,53 +1832,53 @@
         <v>19</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7">
@@ -1903,25 +1899,25 @@
       <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7">
@@ -1942,64 +1938,56 @@
       <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="8">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" ht="27" spans="1:13">
       <c r="A7" s="7">
@@ -2020,8 +2008,8 @@
       <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>31</v>
+      <c r="G7" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2030,15 +2018,15 @@
         <v>0</v>
       </c>
       <c r="J7" s="7">
-        <v>10005</v>
+        <v>1005</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7">
@@ -2059,8 +2047,8 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>33</v>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2075,9 +2063,9 @@
         <v>0</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7">
@@ -2098,8 +2086,8 @@
       <c r="F9" s="7">
         <v>5</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>29</v>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2114,9 +2102,9 @@
         <v>0</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7">
@@ -2137,8 +2125,8 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>36</v>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2153,9 +2141,9 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" ht="27" spans="1:13">
       <c r="A11" s="7">
@@ -2170,14 +2158,14 @@
       <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>38</v>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>36</v>
+      <c r="G11" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2192,84 +2180,257 @@
         <v>0</v>
       </c>
       <c r="L11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="7">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1010</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="7"/>
+    </row>
+    <row r="13" ht="27" spans="1:12">
+      <c r="A13" s="8">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="8">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1012</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="8">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <v>7</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="5">
+      <c r="A18" s="8">
         <v>2001</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
         <v>3</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="8">
         <v>1007</v>
       </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
         <v>0</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:12">
-      <c r="A19" s="5">
+      <c r="A19" s="8">
         <v>2002</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
         <v>3</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="G19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
         <v>0</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="28.5" spans="1:12">
@@ -2289,13 +2450,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2477,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -2329,10 +2487,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:3">
@@ -2340,30 +2498,30 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="54" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" ht="94.5" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4"/>
     </row>

--- a/数据表/H-回合制效果表.xlsx
+++ b/数据表/H-回合制效果表.xlsx
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>效果ID</t>
   </si>
@@ -481,6 +481,9 @@
     <t>#注释</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -502,6 +505,9 @@
     <t>Value2</t>
   </si>
   <si>
+    <t>SucEffect</t>
+  </si>
+  <si>
     <t>FailEffect</t>
   </si>
   <si>
@@ -509,9 +515,6 @@
   </si>
   <si>
     <t>AfterEffect</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>Remove|LEVEL_ALL</t>
@@ -709,9 +712,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -736,14 +739,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,14 +753,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,15 +785,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,6 +807,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -810,16 +822,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,21 +866,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -856,24 +874,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,187 +908,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,11 +1128,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,35 +1176,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,17 +1206,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,10 +1222,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1231,133 +1234,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,16 +1384,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1740,10 +1743,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1804,657 +1807,902 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" ht="27" spans="1:13">
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" ht="27" spans="1:13">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>22</v>
+      <c r="K3" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>1001</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>0</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>1002</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="G5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>0</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>1003</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
         <v>6</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" ht="27" spans="1:13">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>1004</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <v>1005</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>0</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>1005</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="G8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>0</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>1006</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>0</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" ht="27" spans="1:13">
+      <c r="A11" s="6">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7">
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1010</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:12">
+      <c r="A13" s="7">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1012</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7">
+        <v>2001</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7">
         <v>1007</v>
       </c>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:12">
+      <c r="A19" s="7">
+        <v>2002</v>
+      </c>
+      <c r="B19" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" ht="27" spans="1:13">
-      <c r="A11" s="7">
-        <v>1008</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>3</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:12">
+      <c r="A31" s="7">
+        <v>5001</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="7">
-        <v>1009</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="D31" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="7">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1010</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:12">
-      <c r="A13" s="8">
-        <v>1010</v>
-      </c>
-      <c r="B13" s="8">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="8">
-        <v>1011</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>6</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1012</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="8">
-        <v>1012</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8">
-        <v>7</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="8">
-        <v>2001</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>3</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1007</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="1:12">
-      <c r="A19" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" ht="28.5" spans="1:12">
-      <c r="A31" s="5">
-        <v>5001</v>
-      </c>
-      <c r="B31" s="5">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2477,20 +2725,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:3">
@@ -2498,30 +2746,30 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="54" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" ht="94.5" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4"/>
     </row>

--- a/数据表/H-回合制效果表.xlsx
+++ b/数据表/H-回合制效果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="EffectConfig" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>效果ID</t>
   </si>
@@ -560,19 +560,22 @@
     <t>Less_Hp|Self_Max_Hp|0.5</t>
   </si>
   <si>
+    <t>Fixed|Self_Max_Hp|0.34</t>
+  </si>
+  <si>
     <t>若自身体力小于1/2则对敌方造成自身最大体力值1/3的固定伤害</t>
   </si>
   <si>
     <t>Enemy_Dead</t>
   </si>
   <si>
-    <t>若敌方精灵死亡则我方精灵全属性+1</t>
+    <t>若敌方精灵死亡则我方精灵全属性+1,若敌方精灵未死亡则我方精灵下回合受到伤害减少50%。</t>
   </si>
   <si>
     <t>HurtReduce|100|0.5</t>
   </si>
   <si>
-    <t>若敌方精灵死亡则我方精灵全属性+1，若敌方精灵未死亡则我方精灵下回合受到伤害减少50%。</t>
+    <t>我方精灵下回合受到伤害减少50%。</t>
   </si>
   <si>
     <t>消除对手回合类效果，先出手则40%令对手害怕</t>
@@ -597,12 +600,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>全属性</t>
     </r>
     <r>
@@ -679,6 +676,39 @@
     </r>
   </si>
   <si>
+    <t>1006|10</t>
+  </si>
+  <si>
+    <t>10%令对手害怕</t>
+  </si>
+  <si>
+    <t>Promote|LEVEL_Atk|2</t>
+  </si>
+  <si>
+    <t>技能使用成功时，攻击+2</t>
+  </si>
+  <si>
+    <t>Promote|LEVEL_Spd|1</t>
+  </si>
+  <si>
+    <t>技能使用成功时，速度+1</t>
+  </si>
+  <si>
+    <t>DamageIncrease|30|3|true</t>
+  </si>
+  <si>
+    <t>30%当回合造成3倍伤害</t>
+  </si>
+  <si>
+    <t>null|null|15</t>
+  </si>
+  <si>
+    <t>Promote|LEVEL_spAtk|1</t>
+  </si>
+  <si>
+    <t>技能使用成功时，15%使特攻+1</t>
+  </si>
+  <si>
     <t>回合类效果统计表</t>
   </si>
   <si>
@@ -712,12 +742,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,35 +762,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -775,7 +799,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -784,24 +815,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,11 +837,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -836,30 +865,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -874,9 +889,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,7 +936,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,85 +945,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +1119,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,90 +1137,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1117,12 +1172,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1130,17 +1189,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1162,6 +1210,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1172,6 +1235,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1191,26 +1263,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,10 +1290,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1234,137 +1302,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1386,14 +1454,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1746,7 +1844,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1807,7 +1905,7 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="6" t="s">
@@ -1843,8 +1941,8 @@
       <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="X2" s="8"/>
+      <c r="L2" s="17"/>
+      <c r="X2" s="18"/>
     </row>
     <row r="3" ht="27" spans="1:13">
       <c r="A3" s="6" t="s">
@@ -1881,828 +1979,896 @@
         <v>23</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>1001</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>1002</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>1003</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
         <v>6</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" ht="27" spans="1:13">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>1004</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
         <v>1005</v>
       </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>1005</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>1006</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
         <v>5</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>1007</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" ht="27" spans="1:13">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>1008</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="6">
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" ht="27" spans="1:12">
+      <c r="A12" s="7">
         <v>1009</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7">
         <v>5</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>1010</v>
       </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:12">
-      <c r="A13" s="7">
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="8">
         <v>1010</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
         <v>3</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>1011</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>2</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
         <v>2</v>
       </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
         <v>6</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="G14" s="8"/>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
         <v>1012</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>1012</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
         <v>2</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
         <v>7</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="7">
+      <c r="A16" s="10">
         <v>2001</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
         <v>3</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G16" s="10">
         <v>1007</v>
       </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="1:12">
-      <c r="A19" s="7">
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:12">
+      <c r="A17" s="10">
         <v>2002</v>
       </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
         <v>3</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="G17" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1" spans="1:12">
+      <c r="A18" s="12">
+        <v>5001</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>7</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="A20" s="16">
+        <v>2</v>
+      </c>
+      <c r="B20" s="16">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>5</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="A21" s="16">
+        <v>3</v>
+      </c>
+      <c r="B21" s="16">
+        <v>2</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>5</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="A22" s="13">
+        <v>4</v>
+      </c>
+      <c r="B22" s="13">
+        <v>2</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>3</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="A23" s="13">
+        <v>5</v>
+      </c>
+      <c r="B23" s="13">
+        <v>2</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="13">
+        <v>5</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:12">
-      <c r="A31" s="7">
-        <v>5001</v>
-      </c>
-      <c r="B31" s="7">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2725,7 +2891,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -2735,10 +2901,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:3">
@@ -2746,30 +2912,30 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="54" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" ht="94.5" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4"/>
     </row>

--- a/数据表/H-回合制效果表.xlsx
+++ b/数据表/H-回合制效果表.xlsx
@@ -600,6 +600,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>全属性</t>
     </r>
     <r>
@@ -775,9 +781,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,6 +790,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -807,15 +841,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -830,54 +872,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -919,6 +918,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -963,13 +969,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,25 +1089,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,139 +1137,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,26 +1191,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,17 +1230,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,10 +1296,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1302,137 +1308,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1476,9 +1482,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1844,7 +1847,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1905,7 +1908,7 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="6" t="s">
@@ -1941,8 +1944,8 @@
       <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="X2" s="18"/>
+      <c r="L2" s="16"/>
+      <c r="X2" s="17"/>
     </row>
     <row r="3" ht="27" spans="1:13">
       <c r="A3" s="6" t="s">
@@ -1979,7 +1982,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="18"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7">
@@ -2018,7 +2021,7 @@
       <c r="L4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="18"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7">
@@ -2057,7 +2060,7 @@
       <c r="L5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="18"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="8">
@@ -2088,7 +2091,7 @@
       <c r="L6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="18"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" ht="27" spans="1:13">
       <c r="A7" s="7">
@@ -2127,7 +2130,7 @@
       <c r="L7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7">
@@ -2166,7 +2169,7 @@
       <c r="L8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="18"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7">
@@ -2205,7 +2208,7 @@
       <c r="L9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="18"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7">
@@ -2244,7 +2247,7 @@
       <c r="L10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" ht="27" spans="1:13">
       <c r="A11" s="7">
@@ -2281,7 +2284,7 @@
       <c r="L11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="18"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" ht="27" spans="1:12">
       <c r="A12" s="7">
@@ -2386,7 +2389,7 @@
       <c r="L14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="18"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8">
@@ -2520,7 +2523,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2559,78 +2562,78 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>2</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>2</v>
       </c>
-      <c r="C20" s="16">
-        <v>1</v>
-      </c>
-      <c r="D20" s="16">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
         <v>5</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
-        <v>0</v>
-      </c>
-      <c r="K20" s="16">
-        <v>0</v>
-      </c>
-      <c r="L20" s="16" t="s">
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>3</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>2</v>
       </c>
-      <c r="C21" s="16">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
         <v>5</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16" t="s">
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2686,16 +2689,16 @@
       <c r="G23" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="16">
-        <v>0</v>
-      </c>
-      <c r="I23" s="16">
-        <v>0</v>
-      </c>
-      <c r="J23" s="16">
-        <v>0</v>
-      </c>
-      <c r="K23" s="16">
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
         <v>0</v>
       </c>
       <c r="L23" s="13" t="s">
@@ -2703,172 +2706,172 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
